--- a/assets/excel/TemplateReportv1ng.xlsx
+++ b/assets/excel/TemplateReportv1ng.xlsx
@@ -79,13 +79,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0\ &quot;Detik&quot;"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.00\ &quot;Detik&quot;"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00\ &quot;Detik&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0\ &quot;Detik&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -115,11 +115,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,7 +131,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,37 +146,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,22 +160,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -215,6 +192,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -222,9 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +238,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,21 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,19 +305,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +347,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,37 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,31 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,43 +425,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,20 +752,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,21 +778,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,17 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -849,151 +820,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,10 +1017,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1127,2607 +1127,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" altLang="en-US"/>
-              <a:t>Average Downtime per Line</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Report OEE'!$B$11:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Report OEE'!$G$11:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00\ "Detik"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="794982614"/>
-        <c:axId val="608117436"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="794982614"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608117436"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="608117436"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00\ &quot;Detik&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="794982614"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Reason Downtime</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr/>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Report OEE'!$L$12:$L$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Report OEE'!$M$12:$M$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="10000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d>
-        <a:bevelT w="127000" h="127000"/>
-        <a:bevelB w="127000" h="127000"/>
-      </a:sp3d>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3751,7 +1150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3772,66 +1171,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="243840" y="3903345"/>
-        <a:ext cx="4465320" cy="2861310"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>172720</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="6533515" y="5358765"/>
-        <a:ext cx="4448810" cy="2861310"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10791,7 +8130,7 @@
   <sheetPr/>
   <dimension ref="B2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
